--- a/Labs/Lab_1.3.1/data.xlsx
+++ b/Labs/Lab_1.3.1/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
   <si>
     <t>\/</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Высота</t>
   </si>
   <si>
-    <t>4 мм</t>
-  </si>
-  <si>
     <t>2,23 см</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
   </si>
   <si>
     <t>3,4 см от центра</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>s</t>
@@ -132,6 +126,12 @@
   </si>
   <si>
     <t>dl sred, мм</t>
+  </si>
+  <si>
+    <t>65,1 см</t>
+  </si>
+  <si>
+    <t>0,4 см</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -278,17 +278,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -326,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -362,10 +351,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -374,23 +378,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,6 +717,987 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$V$29:$V$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$S$29:$S$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9354110000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8531640000000014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.770917000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.688670000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.606423000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.524176000000008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.441929000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.359682000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3AF-4B90-89C4-6E8A57EDEA5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="382141600"/>
+        <c:axId val="382135776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="382141600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382135776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="382135776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382141600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8150481189851271E-2"/>
+          <c:y val="4.6296296296296294E-2"/>
+          <c:w val="0.85862729658792647"/>
+          <c:h val="0.89814814814814814"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$V$43:$V$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$S$43:$S$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9354110000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8531640000000014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.544306000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.235448000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.926590000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.617732</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.308873999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.000015999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BECF-49FD-929C-4CC00151E361}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="382141600"/>
+        <c:axId val="382135776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="382141600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382135776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="382135776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382141600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8150481189851271E-2"/>
+          <c:y val="4.6296296296296294E-2"/>
+          <c:w val="0.85862729658792647"/>
+          <c:h val="0.89814814814814814"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$V$57:$V$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$S$57:$S$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9354110000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8531640000000014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.770917000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.688670000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.606423000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.524176000000008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.441929000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.359682000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6663-4AD9-A354-5FE575D10398}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="382141600"/>
+        <c:axId val="382135776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="382141600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382135776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="382135776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382141600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -768,7 +1741,1675 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1316,7 +3957,895 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14892337" y="2433637"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>dL (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+            <a:t>мм</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>373856</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>640556</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>78581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21605081" y="2421731"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>dL (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+            <a:t>мм</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21583650" y="5786437"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>dL (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+            <a:t>мм</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>633412</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21597937" y="8682037"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>dL (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+            <a:t>мм</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14115</cdr:x>
+      <cdr:y>0.07031</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.34115</cdr:x>
+      <cdr:y>0.40365</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="645319" y="192882"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08281</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28281</cdr:x>
+      <cdr:y>0.33333</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="378618" y="0"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+            <a:t>Н</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14115</cdr:x>
+      <cdr:y>0.07031</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.34115</cdr:x>
+      <cdr:y>0.40365</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="645319" y="192882"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08281</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28281</cdr:x>
+      <cdr:y>0.33333</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="378618" y="0"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+            <a:t>Н</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14115</cdr:x>
+      <cdr:y>0.07031</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.34115</cdr:x>
+      <cdr:y>0.40365</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="645319" y="192882"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08281</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28281</cdr:x>
+      <cdr:y>0.33333</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="378618" y="0"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+            <a:t>Н</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14115</cdr:x>
+      <cdr:y>0.07031</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.34115</cdr:x>
+      <cdr:y>0.40365</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="645319" y="192882"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08281</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28281</cdr:x>
+      <cdr:y>0.33333</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="378618" y="0"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+            <a:t>Н</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1582,10 +5111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG65"/>
+  <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="J39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1599,34 +5128,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
-        <v>35</v>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,7 +5174,7 @@
       <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
@@ -1655,7 +5184,7 @@
         <f>245.2+478.7</f>
         <v>723.9</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="17">
         <f xml:space="preserve"> B3*9.81/1000</f>
         <v>7.1014590000000002</v>
       </c>
@@ -1690,7 +5219,7 @@
         <f xml:space="preserve"> 246.1 +B3</f>
         <v>970</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="17">
         <f t="shared" ref="C4:C12" si="0" xml:space="preserve"> B4*9.81/1000</f>
         <v>9.5157000000000007</v>
       </c>
@@ -1712,7 +5241,7 @@
       <c r="I4" s="4">
         <v>13.5</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="18">
         <f xml:space="preserve"> (D4-$D$3)*$L$12/(2*$M$12)</f>
         <v>6.0573476702509002E-3</v>
       </c>
@@ -1726,7 +5255,7 @@
         <f t="shared" ref="B5:B12" si="2" xml:space="preserve"> 246.1 +B4</f>
         <v>1216.0999999999999</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="17">
         <f t="shared" si="0"/>
         <v>11.929940999999999</v>
       </c>
@@ -1748,7 +5277,7 @@
       <c r="I5" s="5">
         <v>14.6</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="18">
         <f t="shared" ref="J5:J12" si="3" xml:space="preserve"> (D5-$D$3)*$L$12/(2*$M$12)</f>
         <v>1.1648745519713262E-2</v>
       </c>
@@ -1762,7 +5291,7 @@
         <f t="shared" si="2"/>
         <v>1462.1999999999998</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="17">
         <f t="shared" si="0"/>
         <v>14.344181999999998</v>
       </c>
@@ -1784,7 +5313,7 @@
       <c r="I6" s="5">
         <v>15.7</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="18">
         <f t="shared" si="3"/>
         <v>1.8172043010752689E-2</v>
       </c>
@@ -1798,7 +5327,7 @@
         <f t="shared" si="2"/>
         <v>1708.2999999999997</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="17">
         <f t="shared" si="0"/>
         <v>16.758423000000001</v>
       </c>
@@ -1820,7 +5349,7 @@
       <c r="I7" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="18">
         <f t="shared" si="3"/>
         <v>2.2831541218637987E-2</v>
       </c>
@@ -1837,7 +5366,7 @@
         <f t="shared" si="2"/>
         <v>1954.3999999999996</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="17">
         <f t="shared" si="0"/>
         <v>19.172663999999997</v>
       </c>
@@ -1859,12 +5388,12 @@
       <c r="I8" s="4">
         <v>18.3</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="18">
         <f t="shared" si="3"/>
         <v>2.8888888888888884E-2</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
@@ -1876,7 +5405,7 @@
         <f t="shared" si="2"/>
         <v>2200.4999999999995</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="17">
         <f t="shared" si="0"/>
         <v>21.586904999999994</v>
       </c>
@@ -1898,12 +5427,12 @@
       <c r="I9" s="5">
         <v>19.5</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="18">
         <f t="shared" si="3"/>
         <v>3.4946236559139782E-2</v>
       </c>
       <c r="N9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
@@ -1915,7 +5444,7 @@
         <f t="shared" si="2"/>
         <v>2446.5999999999995</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="17">
         <f t="shared" si="0"/>
         <v>24.001145999999999</v>
       </c>
@@ -1937,7 +5466,7 @@
       <c r="I10" s="5">
         <v>20.3</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="18">
         <f t="shared" si="3"/>
         <v>4.1003584229390683E-2</v>
       </c>
@@ -1951,7 +5480,7 @@
         <f t="shared" si="2"/>
         <v>2692.6999999999994</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="17">
         <f t="shared" si="0"/>
         <v>26.415386999999996</v>
       </c>
@@ -1973,7 +5502,7 @@
       <c r="I11" s="4">
         <v>21.6</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="18">
         <f t="shared" si="3"/>
         <v>4.6129032258064515E-2</v>
       </c>
@@ -1999,7 +5528,7 @@
         <f t="shared" si="2"/>
         <v>2938.7999999999993</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="17">
         <f t="shared" si="0"/>
         <v>28.829627999999992</v>
       </c>
@@ -2021,7 +5550,7 @@
       <c r="I12" s="4">
         <v>22.9</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="18">
         <f t="shared" si="3"/>
         <v>4.9390681003584243E-2</v>
       </c>
@@ -2038,50 +5567,47 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A25" s="18" t="s">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A25" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A26" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="24" t="s">
+      <c r="B26" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L26">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="R26" s="18" t="s">
+      <c r="K26" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="1" t="s">
         <v>0</v>
       </c>
@@ -2100,42 +5626,38 @@
       <c r="I27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J27" s="24"/>
-      <c r="K27" t="s">
+      <c r="J27" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L27" t="s">
+      <c r="K27" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="19" t="s">
+      <c r="Q27" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="S27" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="T27" s="19" t="s">
+      <c r="R27" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="U27" s="21" t="s">
+      <c r="T27" s="21" t="s">
         <v>11</v>
       </c>
+      <c r="U27" s="22"/>
       <c r="V27" s="22"/>
       <c r="W27" s="22"/>
       <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="24" t="s">
-        <v>35</v>
-      </c>
+      <c r="Y27" s="23"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>1</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="17">
         <f xml:space="preserve"> B28*9.81/1000</f>
         <v>0</v>
       </c>
@@ -2157,39 +5679,35 @@
       <c r="I28" s="4">
         <v>0</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K28" s="17" t="s">
+      <c r="J28" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
+      <c r="K28" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="U28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="W28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="Y28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Y28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="24"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <f xml:space="preserve"> A28 + 1</f>
         <v>2</v>
@@ -2197,7 +5715,7 @@
       <c r="B29" s="4">
         <v>503.1</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="17">
         <f t="shared" ref="C29:C36" si="4" xml:space="preserve"> B29*9.81/1000</f>
         <v>4.9354110000000002</v>
       </c>
@@ -2219,40 +5737,36 @@
       <c r="I29" s="4">
         <v>1.18</v>
       </c>
-      <c r="J29" s="4"/>
-      <c r="R29" s="6">
+      <c r="Q29" s="6">
         <v>1</v>
       </c>
-      <c r="S29" s="4">
+      <c r="R29" s="4">
         <v>0</v>
       </c>
-      <c r="T29" s="25">
-        <f xml:space="preserve"> S29*9.81/1000</f>
+      <c r="S29" s="17">
+        <f xml:space="preserve"> R29*9.81/1000</f>
         <v>0</v>
       </c>
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
       <c r="U29" s="4">
+        <v>-0.01</v>
+      </c>
+      <c r="V29" s="4">
         <v>0</v>
       </c>
-      <c r="V29" s="4">
-        <v>-0.01</v>
-      </c>
       <c r="W29" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="X29" s="4">
         <v>0</v>
       </c>
-      <c r="X29" s="4">
+      <c r="Y29" s="4">
         <v>0.01</v>
       </c>
-      <c r="Y29" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="AA29" s="4" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A30" s="7">
         <f t="shared" ref="A30:A36" si="5" xml:space="preserve"> A29 + 1</f>
         <v>3</v>
@@ -2261,7 +5775,7 @@
         <f xml:space="preserve"> 501.3 + B29</f>
         <v>1004.4000000000001</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="17">
         <f t="shared" si="4"/>
         <v>9.8531640000000014</v>
       </c>
@@ -2283,39 +5797,37 @@
       <c r="I30" s="5">
         <v>2.4</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="R30" s="6">
-        <f xml:space="preserve"> R29 + 1</f>
+      <c r="Q30" s="6">
+        <f xml:space="preserve"> Q29 + 1</f>
         <v>2</v>
       </c>
-      <c r="S30" s="4">
+      <c r="R30" s="4">
         <v>503.1</v>
       </c>
-      <c r="T30" s="25">
-        <f t="shared" ref="T30:T37" si="6" xml:space="preserve"> S30*9.81/1000</f>
+      <c r="S30" s="17">
+        <f t="shared" ref="S30:S37" si="6" xml:space="preserve"> R30*9.81/1000</f>
         <v>4.9354110000000002</v>
       </c>
+      <c r="T30" s="4">
+        <v>1.1599999999999999</v>
+      </c>
       <c r="U30" s="4">
-        <v>1.1599999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="V30" s="4">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W30" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="X30" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="Y30" s="4">
         <v>1.19</v>
       </c>
-      <c r="X30" s="4">
-        <v>1.21</v>
-      </c>
-      <c r="Y30" s="4">
-        <v>1.18</v>
-      </c>
-      <c r="Z30" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="AA30" s="4"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" s="7">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -2324,7 +5836,7 @@
         <f t="shared" ref="B31:B36" si="7" xml:space="preserve"> 501.3 + B30</f>
         <v>1505.7</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="17">
         <f t="shared" si="4"/>
         <v>14.770917000000001</v>
       </c>
@@ -2346,40 +5858,38 @@
       <c r="I31" s="5">
         <v>3.54</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="R31" s="7">
-        <f t="shared" ref="R31:R37" si="8" xml:space="preserve"> R30 + 1</f>
+      <c r="Q31" s="7">
+        <f t="shared" ref="Q31:Q37" si="8" xml:space="preserve"> Q30 + 1</f>
         <v>3</v>
       </c>
-      <c r="S31" s="4">
-        <f xml:space="preserve"> 501.3 + S30</f>
+      <c r="R31" s="4">
+        <f xml:space="preserve"> 501.3 + R30</f>
         <v>1004.4000000000001</v>
       </c>
-      <c r="T31" s="25">
+      <c r="S31" s="17">
         <f t="shared" si="6"/>
         <v>9.8531640000000014</v>
       </c>
+      <c r="T31" s="5">
+        <v>2.35</v>
+      </c>
       <c r="U31" s="5">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="V31" s="5">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="W31" s="5">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="X31" s="5">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="Y31" s="5">
-        <v>2.39</v>
-      </c>
-      <c r="Z31" s="5">
         <v>2.41</v>
       </c>
-      <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -2388,7 +5898,7 @@
         <f t="shared" si="7"/>
         <v>2007</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="17">
         <f t="shared" si="4"/>
         <v>19.688670000000002</v>
       </c>
@@ -2410,40 +5920,38 @@
       <c r="I32" s="4">
         <v>4.67</v>
       </c>
-      <c r="J32" s="4"/>
-      <c r="R32" s="7">
-        <f xml:space="preserve"> R31 + 1</f>
+      <c r="Q32" s="7">
+        <f xml:space="preserve"> Q31 + 1</f>
         <v>4</v>
       </c>
-      <c r="S32" s="4">
-        <f t="shared" ref="S32:S37" si="9" xml:space="preserve"> 501.3 + S31</f>
+      <c r="R32" s="4">
+        <f t="shared" ref="R32:R37" si="9" xml:space="preserve"> 501.3 + R31</f>
         <v>1505.7</v>
       </c>
-      <c r="T32" s="25">
+      <c r="S32" s="17">
         <f t="shared" si="6"/>
         <v>14.770917000000001</v>
       </c>
+      <c r="T32" s="5">
+        <v>3.53</v>
+      </c>
       <c r="U32" s="5">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="V32" s="5">
-        <v>3.52</v>
+        <v>3.54</v>
       </c>
       <c r="W32" s="5">
+        <v>3.55</v>
+      </c>
+      <c r="X32" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="Y32" s="5">
         <v>3.54</v>
       </c>
-      <c r="X32" s="5">
-        <v>3.55</v>
-      </c>
-      <c r="Y32" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="Z32" s="5">
-        <v>3.54</v>
-      </c>
-      <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -2452,7 +5960,7 @@
         <f t="shared" si="7"/>
         <v>2508.3000000000002</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="17">
         <f t="shared" si="4"/>
         <v>24.606423000000003</v>
       </c>
@@ -2474,40 +5982,38 @@
       <c r="I33" s="4">
         <v>5.97</v>
       </c>
-      <c r="J33" s="4"/>
-      <c r="R33" s="6">
+      <c r="Q33" s="6">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="S33" s="4">
+      <c r="R33" s="4">
         <f t="shared" si="9"/>
         <v>2007</v>
       </c>
-      <c r="T33" s="25">
+      <c r="S33" s="17">
         <f t="shared" si="6"/>
         <v>19.688670000000002</v>
       </c>
+      <c r="T33" s="4">
+        <v>4.67</v>
+      </c>
       <c r="U33" s="4">
         <v>4.67</v>
       </c>
       <c r="V33" s="4">
+        <v>4.72</v>
+      </c>
+      <c r="W33" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="X33" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="Y33" s="4">
         <v>4.67</v>
       </c>
-      <c r="W33" s="4">
-        <v>4.72</v>
-      </c>
-      <c r="X33" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="Y33" s="4">
-        <v>4.71</v>
-      </c>
-      <c r="Z33" s="4">
-        <v>4.67</v>
-      </c>
-      <c r="AA33" s="4"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A34" s="7">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -2516,7 +6022,7 @@
         <f t="shared" si="7"/>
         <v>3009.6000000000004</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="17">
         <f t="shared" si="4"/>
         <v>29.524176000000008</v>
       </c>
@@ -2538,40 +6044,38 @@
       <c r="I34" s="5">
         <v>7.1</v>
       </c>
-      <c r="J34" s="5"/>
-      <c r="R34" s="6">
+      <c r="Q34" s="6">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="S34" s="4">
+      <c r="R34" s="4">
         <f t="shared" si="9"/>
         <v>2508.3000000000002</v>
       </c>
-      <c r="T34" s="25">
+      <c r="S34" s="17">
         <f t="shared" si="6"/>
         <v>24.606423000000003</v>
       </c>
+      <c r="T34" s="4">
+        <v>5.9</v>
+      </c>
       <c r="U34" s="4">
-        <v>5.9</v>
+        <v>5.92</v>
       </c>
       <c r="V34" s="4">
+        <v>5.87</v>
+      </c>
+      <c r="W34" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="X34" s="4">
         <v>5.92</v>
       </c>
-      <c r="W34" s="4">
-        <v>5.87</v>
-      </c>
-      <c r="X34" s="4">
+      <c r="Y34" s="4">
         <v>5.95</v>
       </c>
-      <c r="Y34" s="4">
-        <v>5.92</v>
-      </c>
-      <c r="Z34" s="4">
-        <v>5.95</v>
-      </c>
-      <c r="AA34" s="4"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A35" s="7">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -2580,7 +6084,7 @@
         <f t="shared" si="7"/>
         <v>3510.9000000000005</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="17">
         <f t="shared" si="4"/>
         <v>34.441929000000002</v>
       </c>
@@ -2602,42 +6106,38 @@
       <c r="I35" s="5">
         <v>8.26</v>
       </c>
-      <c r="J35" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R35" s="7">
+      <c r="Q35" s="7">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="S35" s="4">
+      <c r="R35" s="4">
         <f t="shared" si="9"/>
         <v>3009.6000000000004</v>
       </c>
-      <c r="T35" s="25">
+      <c r="S35" s="17">
         <f t="shared" si="6"/>
         <v>29.524176000000008</v>
       </c>
+      <c r="T35" s="5">
+        <v>6.97</v>
+      </c>
       <c r="U35" s="5">
-        <v>6.97</v>
+        <v>7.05</v>
       </c>
       <c r="V35" s="5">
+        <v>7.04</v>
+      </c>
+      <c r="W35" s="5">
+        <v>7.06</v>
+      </c>
+      <c r="X35" s="5">
         <v>7.05</v>
       </c>
-      <c r="W35" s="5">
-        <v>7.04</v>
-      </c>
-      <c r="X35" s="5">
-        <v>7.06</v>
-      </c>
       <c r="Y35" s="5">
-        <v>7.05</v>
-      </c>
-      <c r="Z35" s="5">
         <v>7.07</v>
       </c>
-      <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -2646,7 +6146,7 @@
         <f t="shared" si="7"/>
         <v>4012.2000000000007</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="17">
         <f t="shared" si="4"/>
         <v>39.359682000000006</v>
       </c>
@@ -2668,126 +6168,120 @@
       <c r="I36" s="4">
         <v>9.44</v>
       </c>
-      <c r="J36" s="4"/>
-      <c r="R36" s="7">
+      <c r="Q36" s="7">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="S36" s="4">
+      <c r="R36" s="4">
         <f t="shared" si="9"/>
         <v>3510.9000000000005</v>
       </c>
-      <c r="T36" s="25">
+      <c r="S36" s="17">
         <f t="shared" si="6"/>
         <v>34.441929000000002</v>
       </c>
+      <c r="T36" s="5">
+        <v>8.0299999999999994</v>
+      </c>
       <c r="U36" s="5">
-        <v>8.0299999999999994</v>
+        <v>8.17</v>
       </c>
       <c r="V36" s="5">
-        <v>8.17</v>
+        <v>8.08</v>
       </c>
       <c r="W36" s="5">
-        <v>8.08</v>
+        <v>8.18</v>
       </c>
       <c r="X36" s="5">
-        <v>8.18</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="Y36" s="5">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="Z36" s="5">
         <v>8.14</v>
       </c>
-      <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="R37" s="6">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="Q37" s="6">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="S37" s="4">
+      <c r="R37" s="4">
         <f t="shared" si="9"/>
         <v>4012.2000000000007</v>
       </c>
-      <c r="T37" s="25">
+      <c r="S37" s="17">
         <f t="shared" si="6"/>
         <v>39.359682000000006</v>
       </c>
+      <c r="T37" s="4">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="U37" s="4">
         <v>9.1999999999999993</v>
       </c>
       <c r="V37" s="4">
-        <v>9.1999999999999993</v>
+        <v>9.31</v>
       </c>
       <c r="W37" s="4">
         <v>9.31</v>
       </c>
       <c r="X37" s="4">
-        <v>9.31</v>
+        <v>9.25</v>
       </c>
       <c r="Y37" s="4">
         <v>9.25</v>
       </c>
-      <c r="Z37" s="4">
-        <v>9.25</v>
-      </c>
-      <c r="AA37" s="4"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A39" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18" t="s">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A40" s="24" t="s">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A40" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="24" t="s">
+      <c r="B40" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L40" t="s">
+      <c r="K40" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="R40" s="18" t="s">
+      <c r="Q40" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="1" t="s">
         <v>0</v>
       </c>
@@ -2806,42 +6300,38 @@
       <c r="I41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J41" s="24"/>
-      <c r="K41" t="s">
+      <c r="J41" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L41" t="s">
+      <c r="K41" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="R41" s="19" t="s">
+      <c r="Q41" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="S41" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="T41" s="19" t="s">
+      <c r="R41" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="S41" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="U41" s="21" t="s">
+      <c r="T41" s="21" t="s">
         <v>11</v>
       </c>
+      <c r="U41" s="22"/>
       <c r="V41" s="22"/>
       <c r="W41" s="22"/>
       <c r="X41" s="22"/>
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="23"/>
-      <c r="AA41" s="24" t="s">
-        <v>35</v>
-      </c>
+      <c r="Y41" s="23"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>1</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C42" s="17">
         <f xml:space="preserve"> B42*9.81/1000</f>
         <v>0</v>
       </c>
@@ -2863,39 +6353,35 @@
       <c r="I42" s="4">
         <v>0</v>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K42" s="17" t="s">
+      <c r="J42" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
+      <c r="K42" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="U42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V42" s="1" t="s">
+      <c r="W42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="X42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X42" s="1" t="s">
+      <c r="Y42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Y42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="24"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <f xml:space="preserve"> A42 + 1</f>
         <v>2</v>
@@ -2903,7 +6389,7 @@
       <c r="B43" s="4">
         <v>503.1</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="17">
         <f t="shared" ref="C43:C50" si="10" xml:space="preserve"> B43*9.81/1000</f>
         <v>4.9354110000000002</v>
       </c>
@@ -2925,40 +6411,36 @@
       <c r="I43" s="4">
         <v>0</v>
       </c>
-      <c r="J43" s="4"/>
-      <c r="R43" s="6">
+      <c r="Q43" s="6">
         <v>1</v>
       </c>
-      <c r="S43" s="4">
+      <c r="R43" s="4">
         <v>0</v>
       </c>
-      <c r="T43" s="25">
-        <f xml:space="preserve"> S43*9.81/1000</f>
+      <c r="S43" s="17">
+        <f xml:space="preserve"> R43*9.81/1000</f>
         <v>0</v>
       </c>
+      <c r="T43" s="4">
+        <v>0</v>
+      </c>
       <c r="U43" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="V43" s="4">
         <v>0</v>
       </c>
-      <c r="V43" s="4">
-        <v>0.06</v>
-      </c>
       <c r="W43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="X43" s="4">
         <v>0</v>
       </c>
-      <c r="X43" s="4">
-        <v>0.01</v>
-      </c>
       <c r="Y43" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="4">
         <v>0.02</v>
       </c>
-      <c r="AA43" s="4" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A44" s="7">
         <f t="shared" ref="A44:A50" si="11" xml:space="preserve"> A43 + 1</f>
         <v>3</v>
@@ -2967,7 +6449,7 @@
         <f xml:space="preserve"> 501.3 + B43</f>
         <v>1004.4000000000001</v>
       </c>
-      <c r="C44" s="25">
+      <c r="C44" s="17">
         <f t="shared" si="10"/>
         <v>9.8531640000000014</v>
       </c>
@@ -2989,39 +6471,37 @@
       <c r="I44" s="5">
         <v>0.44</v>
       </c>
-      <c r="J44" s="5"/>
-      <c r="R44" s="6">
-        <f xml:space="preserve"> R43 + 1</f>
+      <c r="Q44" s="6">
+        <f xml:space="preserve"> Q43 + 1</f>
         <v>2</v>
       </c>
-      <c r="S44" s="4">
+      <c r="R44" s="4">
         <v>503.1</v>
       </c>
-      <c r="T44" s="25">
-        <f t="shared" ref="T44:T51" si="12" xml:space="preserve"> S44*9.81/1000</f>
+      <c r="S44" s="17">
+        <f t="shared" ref="S44:S51" si="12" xml:space="preserve"> R44*9.81/1000</f>
         <v>4.9354110000000002</v>
       </c>
+      <c r="T44" s="4">
+        <v>0.91</v>
+      </c>
       <c r="U44" s="4">
-        <v>0.91</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V44" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="W44" s="4">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="X44" s="4">
-        <v>1.07</v>
+        <v>0.98</v>
       </c>
       <c r="Y44" s="4">
-        <v>0.98</v>
-      </c>
-      <c r="Z44" s="4">
         <v>1.02</v>
       </c>
-      <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45" s="7">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -3030,7 +6510,7 @@
         <f xml:space="preserve"> 478.2 + B44</f>
         <v>1482.6000000000001</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="17">
         <f t="shared" si="10"/>
         <v>14.544306000000002</v>
       </c>
@@ -3052,40 +6532,38 @@
       <c r="I45" s="5">
         <v>1.47</v>
       </c>
-      <c r="J45" s="5"/>
-      <c r="R45" s="7">
-        <f t="shared" ref="R45:R51" si="13" xml:space="preserve"> R44 + 1</f>
+      <c r="Q45" s="7">
+        <f t="shared" ref="Q45:Q51" si="13" xml:space="preserve"> Q44 + 1</f>
         <v>3</v>
       </c>
-      <c r="S45" s="4">
-        <f xml:space="preserve"> 501.3 + S44</f>
+      <c r="R45" s="4">
+        <f xml:space="preserve"> 501.3 + R44</f>
         <v>1004.4000000000001</v>
       </c>
-      <c r="T45" s="25">
+      <c r="S45" s="17">
         <f t="shared" si="12"/>
         <v>9.8531640000000014</v>
       </c>
+      <c r="T45" s="5">
+        <v>1.86</v>
+      </c>
       <c r="U45" s="5">
-        <v>1.86</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="V45" s="5">
-        <v>2.0299999999999998</v>
+        <v>1.95</v>
       </c>
       <c r="W45" s="5">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="X45" s="5">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="Y45" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="Z45" s="5">
         <v>1.92</v>
       </c>
-      <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -3094,7 +6572,7 @@
         <f t="shared" ref="B46:B50" si="14" xml:space="preserve"> 478.2 + B45</f>
         <v>1960.8000000000002</v>
       </c>
-      <c r="C46" s="25">
+      <c r="C46" s="17">
         <f t="shared" si="10"/>
         <v>19.235448000000005</v>
       </c>
@@ -3116,40 +6594,38 @@
       <c r="I46" s="4">
         <v>2.4900000000000002</v>
       </c>
-      <c r="J46" s="4"/>
-      <c r="R46" s="7">
+      <c r="Q46" s="7">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="S46" s="4">
-        <f xml:space="preserve"> 478.2 + S45</f>
+      <c r="R46" s="4">
+        <f xml:space="preserve"> 478.2 + R45</f>
         <v>1482.6000000000001</v>
       </c>
-      <c r="T46" s="25">
+      <c r="S46" s="17">
         <f t="shared" si="12"/>
         <v>14.544306000000002</v>
       </c>
+      <c r="T46" s="5">
+        <v>2.87</v>
+      </c>
       <c r="U46" s="5">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="V46" s="5">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="W46" s="5">
+        <v>2.92</v>
+      </c>
+      <c r="X46" s="5">
         <v>2.91</v>
       </c>
-      <c r="X46" s="5">
-        <v>2.92</v>
-      </c>
       <c r="Y46" s="5">
-        <v>2.91</v>
-      </c>
-      <c r="Z46" s="5">
         <v>2.95</v>
       </c>
-      <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -3158,7 +6634,7 @@
         <f t="shared" si="14"/>
         <v>2439</v>
       </c>
-      <c r="C47" s="25">
+      <c r="C47" s="17">
         <f t="shared" si="10"/>
         <v>23.926590000000001</v>
       </c>
@@ -3180,40 +6656,38 @@
       <c r="I47" s="4">
         <v>3.41</v>
       </c>
-      <c r="J47" s="4"/>
-      <c r="R47" s="6">
+      <c r="Q47" s="6">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="S47" s="4">
-        <f t="shared" ref="S47:S51" si="15" xml:space="preserve"> 478.2 + S46</f>
+      <c r="R47" s="4">
+        <f t="shared" ref="R47:R51" si="15" xml:space="preserve"> 478.2 + R46</f>
         <v>1960.8000000000002</v>
       </c>
-      <c r="T47" s="25">
+      <c r="S47" s="17">
         <f t="shared" si="12"/>
         <v>19.235448000000005</v>
       </c>
+      <c r="T47" s="4">
+        <v>3.82</v>
+      </c>
       <c r="U47" s="4">
-        <v>3.82</v>
+        <v>3.96</v>
       </c>
       <c r="V47" s="4">
-        <v>3.96</v>
+        <v>3.91</v>
       </c>
       <c r="W47" s="4">
-        <v>3.91</v>
+        <v>3.92</v>
       </c>
       <c r="X47" s="4">
-        <v>3.92</v>
+        <v>3.95</v>
       </c>
       <c r="Y47" s="4">
-        <v>3.95</v>
-      </c>
-      <c r="Z47" s="4">
         <v>3.04</v>
       </c>
-      <c r="AA47" s="4"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A48" s="7">
         <f t="shared" si="11"/>
         <v>7</v>
@@ -3222,7 +6696,7 @@
         <f t="shared" si="14"/>
         <v>2917.2</v>
       </c>
-      <c r="C48" s="25">
+      <c r="C48" s="17">
         <f t="shared" si="10"/>
         <v>28.617732</v>
       </c>
@@ -3244,40 +6718,38 @@
       <c r="I48" s="5">
         <v>4.38</v>
       </c>
-      <c r="J48" s="5"/>
-      <c r="R48" s="6">
+      <c r="Q48" s="6">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="S48" s="4">
+      <c r="R48" s="4">
         <f t="shared" si="15"/>
         <v>2439</v>
       </c>
-      <c r="T48" s="25">
+      <c r="S48" s="17">
         <f t="shared" si="12"/>
         <v>23.926590000000001</v>
       </c>
+      <c r="T48" s="4">
+        <v>4.8</v>
+      </c>
       <c r="U48" s="4">
-        <v>4.8</v>
+        <v>4.95</v>
       </c>
       <c r="V48" s="4">
-        <v>4.95</v>
+        <v>4.92</v>
       </c>
       <c r="W48" s="4">
-        <v>4.92</v>
+        <v>4.87</v>
       </c>
       <c r="X48" s="4">
-        <v>4.87</v>
+        <v>4.91</v>
       </c>
       <c r="Y48" s="4">
-        <v>4.91</v>
-      </c>
-      <c r="Z48" s="4">
         <v>4.8899999999999997</v>
       </c>
-      <c r="AA48" s="4"/>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A49" s="7">
         <f t="shared" si="11"/>
         <v>8</v>
@@ -3286,7 +6758,7 @@
         <f t="shared" si="14"/>
         <v>3395.3999999999996</v>
       </c>
-      <c r="C49" s="25">
+      <c r="C49" s="17">
         <f t="shared" si="10"/>
         <v>33.308873999999996</v>
       </c>
@@ -3308,40 +6780,38 @@
       <c r="I49" s="5">
         <v>5.28</v>
       </c>
-      <c r="J49" s="5"/>
-      <c r="R49" s="7">
+      <c r="Q49" s="7">
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="S49" s="4">
+      <c r="R49" s="4">
         <f t="shared" si="15"/>
         <v>2917.2</v>
       </c>
-      <c r="T49" s="25">
+      <c r="S49" s="17">
         <f t="shared" si="12"/>
         <v>28.617732</v>
       </c>
+      <c r="T49" s="5">
+        <v>5.75</v>
+      </c>
       <c r="U49" s="5">
-        <v>5.75</v>
+        <v>5.86</v>
       </c>
       <c r="V49" s="5">
-        <v>5.86</v>
+        <v>5.8</v>
       </c>
       <c r="W49" s="5">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X49" s="5">
-        <v>5.9</v>
+        <v>5.85</v>
       </c>
       <c r="Y49" s="5">
-        <v>5.85</v>
-      </c>
-      <c r="Z49" s="5">
         <v>5.92</v>
       </c>
-      <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <f t="shared" si="11"/>
         <v>9</v>
@@ -3350,7 +6820,7 @@
         <f t="shared" si="14"/>
         <v>3873.5999999999995</v>
       </c>
-      <c r="C50" s="25">
+      <c r="C50" s="17">
         <f t="shared" si="10"/>
         <v>38.000015999999995</v>
       </c>
@@ -3372,124 +6842,118 @@
       <c r="I50" s="4">
         <v>5.97</v>
       </c>
-      <c r="J50" s="4"/>
-      <c r="R50" s="7">
+      <c r="Q50" s="7">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="S50" s="4">
+      <c r="R50" s="4">
         <f t="shared" si="15"/>
         <v>3395.3999999999996</v>
       </c>
-      <c r="T50" s="25">
+      <c r="S50" s="17">
         <f t="shared" si="12"/>
         <v>33.308873999999996</v>
       </c>
+      <c r="T50" s="5">
+        <v>6.7</v>
+      </c>
       <c r="U50" s="5">
+        <v>6.77</v>
+      </c>
+      <c r="V50" s="5">
+        <v>6.75</v>
+      </c>
+      <c r="W50" s="5">
         <v>6.7</v>
       </c>
-      <c r="V50" s="5">
-        <v>6.77</v>
-      </c>
-      <c r="W50" s="5">
-        <v>6.75</v>
-      </c>
       <c r="X50" s="5">
-        <v>6.7</v>
+        <v>6.72</v>
       </c>
       <c r="Y50" s="5">
-        <v>6.72</v>
-      </c>
-      <c r="Z50" s="5">
         <v>6.78</v>
       </c>
-      <c r="AA50" s="5"/>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="R51" s="6">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="Q51" s="6">
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="S51" s="4">
+      <c r="R51" s="4">
         <f t="shared" si="15"/>
         <v>3873.5999999999995</v>
       </c>
-      <c r="T51" s="25">
+      <c r="S51" s="17">
         <f t="shared" si="12"/>
         <v>38.000015999999995</v>
       </c>
+      <c r="T51" s="4">
+        <v>7.67</v>
+      </c>
       <c r="U51" s="4">
         <v>7.67</v>
       </c>
       <c r="V51" s="4">
-        <v>7.67</v>
+        <v>7.59</v>
       </c>
       <c r="W51" s="4">
         <v>7.59</v>
       </c>
       <c r="X51" s="4">
-        <v>7.59</v>
+        <v>7.65</v>
       </c>
       <c r="Y51" s="4">
         <v>7.65</v>
       </c>
-      <c r="Z51" s="4">
-        <v>7.65</v>
-      </c>
-      <c r="AA51" s="4"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A53" s="18" t="s">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A53" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="AD53" s="2"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
       <c r="AE53" s="11"/>
-      <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A54" s="24" t="s">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A54" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="24" t="s">
+      <c r="B54" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="D54" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L54" t="s">
+      <c r="K54" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="R54" s="18" t="s">
+      <c r="Q54" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="AD54" s="13"/>
-      <c r="AE54" s="11"/>
-      <c r="AF54" s="12"/>
-      <c r="AG54" s="8"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="AB54" s="13"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="8"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="1" t="s">
         <v>0</v>
       </c>
@@ -3508,46 +6972,45 @@
       <c r="I55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J55" s="24"/>
-      <c r="K55" t="s">
+      <c r="J55" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L55" t="s">
-        <v>26</v>
-      </c>
-      <c r="R55" s="19" t="s">
+      <c r="K55" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q55" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="S55" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="T55" s="19" t="s">
+      <c r="R55" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="S55" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="U55" s="21" t="s">
-        <v>33</v>
-      </c>
+      <c r="T55" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" s="22"/>
       <c r="V55" s="22"/>
       <c r="W55" s="22"/>
       <c r="X55" s="22"/>
-      <c r="Y55" s="22"/>
-      <c r="Z55" s="23"/>
-      <c r="AA55" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD55" s="13"/>
-      <c r="AE55" s="13"/>
-      <c r="AF55" s="8"/>
-      <c r="AG55" s="8"/>
+      <c r="Y55" s="23"/>
+      <c r="AB55" s="13"/>
+      <c r="AC55" s="13"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A56" s="6">
         <v>1</v>
       </c>
       <c r="B56" s="4">
         <v>0</v>
       </c>
-      <c r="C56" s="4"/>
+      <c r="C56" s="17">
+        <f xml:space="preserve"> B56*9.81/1000</f>
+        <v>0</v>
+      </c>
       <c r="D56" s="4">
         <v>0</v>
       </c>
@@ -3566,43 +7029,39 @@
       <c r="I56" s="4">
         <v>0.01</v>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K56" s="17" t="s">
+      <c r="J56" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L56" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="20"/>
+      <c r="K56" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="U56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="V56" s="1" t="s">
+      <c r="W56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W56" s="1" t="s">
+      <c r="X56" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X56" s="1" t="s">
+      <c r="Y56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Y56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA56" s="24"/>
-      <c r="AD56" s="13"/>
-      <c r="AE56" s="11"/>
-      <c r="AF56" s="8"/>
-      <c r="AG56" s="8"/>
+      <c r="AB56" s="13"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A57" s="6">
         <f xml:space="preserve"> A56 + 1</f>
         <v>2</v>
@@ -3610,7 +7069,10 @@
       <c r="B57" s="4">
         <v>503.1</v>
       </c>
-      <c r="C57" s="4"/>
+      <c r="C57" s="17">
+        <f t="shared" ref="C57:C64" si="16" xml:space="preserve"> B57*9.81/1000</f>
+        <v>4.9354110000000002</v>
+      </c>
       <c r="D57" s="4">
         <v>0.63</v>
       </c>
@@ -3629,14 +7091,19 @@
       <c r="I57" s="4">
         <v>0.67</v>
       </c>
-      <c r="J57" s="4"/>
-      <c r="R57" s="6">
+      <c r="Q57" s="6">
         <v>1</v>
       </c>
-      <c r="S57" s="4">
+      <c r="R57" s="4">
         <v>0</v>
       </c>
-      <c r="T57" s="4"/>
+      <c r="S57" s="17">
+        <f xml:space="preserve"> R57*9.81/1000</f>
+        <v>0</v>
+      </c>
+      <c r="T57" s="4">
+        <v>0</v>
+      </c>
       <c r="U57" s="4">
         <v>0</v>
       </c>
@@ -3652,27 +7119,24 @@
       <c r="Y57" s="4">
         <v>0</v>
       </c>
-      <c r="Z57" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD57" s="13"/>
-      <c r="AE57" s="13"/>
-      <c r="AF57" s="11"/>
-      <c r="AG57" s="11"/>
+      <c r="AB57" s="13"/>
+      <c r="AC57" s="13"/>
+      <c r="AD57" s="11"/>
+      <c r="AE57" s="11"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A58" s="7">
-        <f t="shared" ref="A58:A64" si="16" xml:space="preserve"> A57 + 1</f>
+        <f t="shared" ref="A58:A64" si="17" xml:space="preserve"> A57 + 1</f>
         <v>3</v>
       </c>
       <c r="B58" s="4">
         <f xml:space="preserve"> 501.3 + B57</f>
         <v>1004.4000000000001</v>
       </c>
-      <c r="C58" s="4"/>
+      <c r="C58" s="17">
+        <f t="shared" si="16"/>
+        <v>9.8531640000000014</v>
+      </c>
       <c r="D58" s="5">
         <v>1.3</v>
       </c>
@@ -3691,49 +7155,53 @@
       <c r="I58" s="5">
         <v>1.31</v>
       </c>
-      <c r="J58" s="5"/>
-      <c r="R58" s="6">
-        <f xml:space="preserve"> R57 + 1</f>
+      <c r="Q58" s="6">
+        <f xml:space="preserve"> Q57 + 1</f>
         <v>2</v>
       </c>
-      <c r="S58" s="4">
+      <c r="R58" s="4">
         <v>503.1</v>
       </c>
-      <c r="T58" s="4"/>
+      <c r="S58" s="17">
+        <f t="shared" ref="S58:S65" si="18" xml:space="preserve"> R58*9.81/1000</f>
+        <v>4.9354110000000002</v>
+      </c>
+      <c r="T58" s="4">
+        <v>0.68</v>
+      </c>
       <c r="U58" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="V58" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="W58" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="X58" s="4">
         <v>0.68</v>
       </c>
-      <c r="V58" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="W58" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="X58" s="4">
-        <v>0.7</v>
-      </c>
       <c r="Y58" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="Z58" s="4">
         <v>0.67</v>
       </c>
-      <c r="AA58" s="4"/>
-      <c r="AD58" s="13"/>
+      <c r="AB58" s="13"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
       <c r="AE58" s="11"/>
-      <c r="AF58" s="11"/>
-      <c r="AG58" s="11"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A59" s="7">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="B59" s="4">
+        <f t="shared" ref="B59:B64" si="19" xml:space="preserve"> 501.3 + B58</f>
+        <v>1505.7</v>
+      </c>
+      <c r="C59" s="17">
         <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="B59" s="4">
-        <f t="shared" ref="B59:B64" si="17" xml:space="preserve"> 501.3 + B58</f>
-        <v>1505.7</v>
-      </c>
-      <c r="C59" s="4"/>
+        <v>14.770917000000001</v>
+      </c>
       <c r="D59" s="5">
         <v>1.95</v>
       </c>
@@ -3752,50 +7220,54 @@
       <c r="I59" s="5">
         <v>2.0299999999999998</v>
       </c>
-      <c r="J59" s="5"/>
-      <c r="R59" s="7">
-        <f t="shared" ref="R59:R64" si="18" xml:space="preserve"> R58 + 1</f>
+      <c r="Q59" s="7">
+        <f t="shared" ref="Q59:Q64" si="20" xml:space="preserve"> Q58 + 1</f>
         <v>3</v>
       </c>
-      <c r="S59" s="4">
-        <f xml:space="preserve"> 501.3 + S58</f>
+      <c r="R59" s="4">
+        <f xml:space="preserve"> 501.3 + R58</f>
         <v>1004.4000000000001</v>
       </c>
-      <c r="T59" s="4"/>
+      <c r="S59" s="17">
+        <f t="shared" si="18"/>
+        <v>9.8531640000000014</v>
+      </c>
+      <c r="T59" s="5">
+        <v>1.31</v>
+      </c>
       <c r="U59" s="5">
-        <v>1.31</v>
+        <v>1.49</v>
       </c>
       <c r="V59" s="5">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="W59" s="5">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="X59" s="5">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="Y59" s="5">
-        <v>1.38</v>
-      </c>
-      <c r="Z59" s="5">
         <v>1.32</v>
       </c>
-      <c r="AA59" s="5"/>
-      <c r="AD59" s="13"/>
+      <c r="AB59" s="13"/>
+      <c r="AC59" s="11"/>
+      <c r="AD59" s="11"/>
       <c r="AE59" s="11"/>
-      <c r="AF59" s="11"/>
-      <c r="AG59" s="11"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A60" s="6">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="B60" s="4">
+        <f t="shared" si="19"/>
+        <v>2007</v>
+      </c>
+      <c r="C60" s="17">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="B60" s="4">
-        <f t="shared" si="17"/>
-        <v>2007</v>
-      </c>
-      <c r="C60" s="4"/>
+        <v>19.688670000000002</v>
+      </c>
       <c r="D60" s="4">
         <v>2.59</v>
       </c>
@@ -3814,50 +7286,54 @@
       <c r="I60" s="4">
         <v>2.58</v>
       </c>
-      <c r="J60" s="4"/>
-      <c r="R60" s="7">
+      <c r="Q60" s="7">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="R60" s="4">
+        <f t="shared" ref="R60:R64" si="21" xml:space="preserve"> 501.3 + R59</f>
+        <v>1505.7</v>
+      </c>
+      <c r="S60" s="17">
         <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="S60" s="4">
-        <f t="shared" ref="S60:S64" si="19" xml:space="preserve"> 501.3 + S59</f>
-        <v>1505.7</v>
-      </c>
-      <c r="T60" s="4"/>
+        <v>14.770917000000001</v>
+      </c>
+      <c r="T60" s="5">
+        <v>2</v>
+      </c>
       <c r="U60" s="5">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="V60" s="5">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="W60" s="5">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="X60" s="5">
-        <v>1.96</v>
+        <v>2.19</v>
       </c>
       <c r="Y60" s="5">
-        <v>2.19</v>
-      </c>
-      <c r="Z60" s="5">
         <v>2.1</v>
       </c>
-      <c r="AA60" s="5"/>
-      <c r="AD60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="11"/>
+      <c r="AD60" s="11"/>
       <c r="AE60" s="11"/>
-      <c r="AF60" s="11"/>
-      <c r="AG60" s="11"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A61" s="6">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="B61" s="4">
+        <f t="shared" si="19"/>
+        <v>2508.3000000000002</v>
+      </c>
+      <c r="C61" s="17">
         <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="B61" s="4">
-        <f t="shared" si="17"/>
-        <v>2508.3000000000002</v>
-      </c>
-      <c r="C61" s="4"/>
+        <v>24.606423000000003</v>
+      </c>
       <c r="D61" s="4">
         <v>3.26</v>
       </c>
@@ -3876,50 +7352,54 @@
       <c r="I61" s="4">
         <v>3.37</v>
       </c>
-      <c r="J61" s="4"/>
-      <c r="R61" s="6">
+      <c r="Q61" s="6">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="R61" s="4">
+        <f t="shared" si="21"/>
+        <v>2007</v>
+      </c>
+      <c r="S61" s="17">
         <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="S61" s="4">
-        <f t="shared" si="19"/>
-        <v>2007</v>
-      </c>
-      <c r="T61" s="4"/>
+        <v>19.688670000000002</v>
+      </c>
+      <c r="T61" s="4">
+        <v>2.68</v>
+      </c>
       <c r="U61" s="4">
+        <v>2.82</v>
+      </c>
+      <c r="V61" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="W61" s="4">
         <v>2.68</v>
       </c>
-      <c r="V61" s="4">
-        <v>2.82</v>
-      </c>
-      <c r="W61" s="4">
-        <v>2.67</v>
-      </c>
       <c r="X61" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="Y61" s="4">
         <v>2.68</v>
       </c>
-      <c r="Y61" s="4">
-        <v>2.72</v>
-      </c>
-      <c r="Z61" s="4">
-        <v>2.68</v>
-      </c>
-      <c r="AA61" s="4"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="11"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="11"/>
-      <c r="AF61" s="2"/>
-      <c r="AG61" s="11"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A62" s="7">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="B62" s="4">
+        <f t="shared" si="19"/>
+        <v>3009.6000000000004</v>
+      </c>
+      <c r="C62" s="17">
         <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="B62" s="4">
-        <f t="shared" si="17"/>
-        <v>3009.6000000000004</v>
-      </c>
-      <c r="C62" s="4"/>
+        <v>29.524176000000008</v>
+      </c>
       <c r="D62" s="14">
         <v>3.9</v>
       </c>
@@ -3938,50 +7418,54 @@
       <c r="I62" s="5">
         <v>4.01</v>
       </c>
-      <c r="J62" s="5"/>
-      <c r="R62" s="6">
+      <c r="Q62" s="6">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="R62" s="4">
+        <f t="shared" si="21"/>
+        <v>2508.3000000000002</v>
+      </c>
+      <c r="S62" s="17">
         <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="S62" s="4">
-        <f t="shared" si="19"/>
-        <v>2508.3000000000002</v>
-      </c>
-      <c r="T62" s="4"/>
+        <v>24.606423000000003</v>
+      </c>
+      <c r="T62" s="4">
+        <v>3.49</v>
+      </c>
       <c r="U62" s="4">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="V62" s="4">
-        <v>3.5</v>
+        <v>3.39</v>
       </c>
       <c r="W62" s="4">
         <v>3.39</v>
       </c>
       <c r="X62" s="4">
-        <v>3.39</v>
+        <v>3.43</v>
       </c>
       <c r="Y62" s="4">
-        <v>3.43</v>
-      </c>
-      <c r="Z62" s="4">
         <v>3.41</v>
       </c>
-      <c r="AA62" s="4"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="11"/>
       <c r="AD62" s="2"/>
       <c r="AE62" s="11"/>
-      <c r="AF62" s="2"/>
-      <c r="AG62" s="11"/>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A63" s="7">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="B63" s="4">
+        <f t="shared" si="19"/>
+        <v>3510.9000000000005</v>
+      </c>
+      <c r="C63" s="17">
         <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="B63" s="4">
-        <f t="shared" si="17"/>
-        <v>3510.9000000000005</v>
-      </c>
-      <c r="C63" s="4"/>
+        <v>34.441929000000002</v>
+      </c>
       <c r="D63" s="5">
         <v>4.51</v>
       </c>
@@ -4000,52 +7484,54 @@
       <c r="I63" s="5">
         <v>4.63</v>
       </c>
-      <c r="J63" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R63" s="7">
+      <c r="Q63" s="7">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="R63" s="4">
+        <f t="shared" si="21"/>
+        <v>3009.6000000000004</v>
+      </c>
+      <c r="S63" s="17">
         <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="S63" s="4">
-        <f t="shared" si="19"/>
-        <v>3009.6000000000004</v>
-      </c>
-      <c r="T63" s="4"/>
+        <v>29.524176000000008</v>
+      </c>
+      <c r="T63" s="5">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="U63" s="5">
-        <v>4.0999999999999996</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="V63" s="5">
-        <v>4.1500000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="W63" s="5">
-        <v>4.3</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="X63" s="5">
-        <v>4.3099999999999996</v>
+        <v>4.24</v>
       </c>
       <c r="Y63" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="Z63" s="5">
         <v>4.21</v>
       </c>
-      <c r="AA63" s="5"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="11"/>
       <c r="AD63" s="2"/>
       <c r="AE63" s="11"/>
-      <c r="AF63" s="2"/>
-      <c r="AG63" s="11"/>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A64" s="15">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="B64" s="4">
+        <f t="shared" si="19"/>
+        <v>4012.2000000000007</v>
+      </c>
+      <c r="C64" s="17">
         <f t="shared" si="16"/>
-        <v>9</v>
-      </c>
-      <c r="B64" s="4">
-        <f t="shared" si="17"/>
-        <v>4012.2000000000007</v>
-      </c>
-      <c r="C64" s="16"/>
+        <v>39.359682000000006</v>
+      </c>
       <c r="D64" s="16">
         <v>5.17</v>
       </c>
@@ -4064,115 +7550,112 @@
       <c r="I64" s="16">
         <v>5.21</v>
       </c>
-      <c r="J64" s="4"/>
-      <c r="R64" s="7">
+      <c r="Q64" s="7">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="R64" s="4">
+        <f t="shared" si="21"/>
+        <v>3510.9000000000005</v>
+      </c>
+      <c r="S64" s="17">
         <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="S64" s="4">
-        <f t="shared" si="19"/>
-        <v>3510.9000000000005</v>
-      </c>
-      <c r="T64" s="4"/>
+        <v>34.441929000000002</v>
+      </c>
+      <c r="T64" s="5">
+        <v>4.76</v>
+      </c>
       <c r="U64" s="5">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
       <c r="V64" s="5">
-        <v>4.78</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="W64" s="5">
+        <v>4.67</v>
+      </c>
+      <c r="X64" s="5">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="Y64" s="5">
         <v>4.6399999999999997</v>
       </c>
-      <c r="X64" s="5">
-        <v>4.67</v>
-      </c>
-      <c r="Y64" s="5">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="Z64" s="5">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="AA64" s="5"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="13"/>
       <c r="AD64" s="2"/>
       <c r="AE64" s="13"/>
-      <c r="AF64" s="2"/>
-      <c r="AG64" s="13"/>
     </row>
-    <row r="65" spans="18:27" x14ac:dyDescent="0.45">
-      <c r="R65" s="6">
-        <f xml:space="preserve"> R64 + 1</f>
+    <row r="65" spans="17:25" x14ac:dyDescent="0.45">
+      <c r="Q65" s="6">
+        <f xml:space="preserve"> Q64 + 1</f>
         <v>9</v>
       </c>
-      <c r="S65" s="4">
-        <f xml:space="preserve"> 501.3 + S64</f>
+      <c r="R65" s="4">
+        <f xml:space="preserve"> 501.3 + R64</f>
         <v>4012.2000000000007</v>
       </c>
-      <c r="T65" s="4"/>
+      <c r="S65" s="17">
+        <f t="shared" si="18"/>
+        <v>39.359682000000006</v>
+      </c>
+      <c r="T65" s="4">
+        <v>5.41</v>
+      </c>
       <c r="U65" s="4">
         <v>5.41</v>
       </c>
       <c r="V65" s="4">
-        <v>5.41</v>
+        <v>5.31</v>
       </c>
       <c r="W65" s="4">
         <v>5.31</v>
       </c>
       <c r="X65" s="4">
-        <v>5.31</v>
+        <v>5.29</v>
       </c>
       <c r="Y65" s="4">
         <v>5.29</v>
       </c>
-      <c r="Z65" s="4">
-        <v>5.29</v>
-      </c>
-      <c r="AA65" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="37">
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="T55:Y55"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="T41:Y41"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:I40"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:I26"/>
-    <mergeCell ref="J26:J27"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:I54"/>
-    <mergeCell ref="J54:J55"/>
     <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="R54:T54"/>
-    <mergeCell ref="U27:Z27"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="T41:T42"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:Z55"/>
-    <mergeCell ref="AA55:AA56"/>
-    <mergeCell ref="U41:Z41"/>
-    <mergeCell ref="AA41:AA42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
